--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H2">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>18.95231612524266</v>
+        <v>4.709125178046333</v>
       </c>
       <c r="R2">
-        <v>170.570845127184</v>
+        <v>42.382126602417</v>
       </c>
       <c r="S2">
-        <v>0.05178337284738344</v>
+        <v>0.01644540346247579</v>
       </c>
       <c r="T2">
-        <v>0.05178337284738343</v>
+        <v>0.01644540346247579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H3">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>35.11289172168399</v>
+        <v>8.905446300270334</v>
       </c>
       <c r="R3">
-        <v>316.016025495156</v>
+        <v>80.149016702433</v>
       </c>
       <c r="S3">
-        <v>0.09593887901394874</v>
+        <v>0.03109997120146995</v>
       </c>
       <c r="T3">
-        <v>0.09593887901394872</v>
+        <v>0.03109997120146995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H4">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>17.10838353451867</v>
+        <v>2.350896343605444</v>
       </c>
       <c r="R4">
-        <v>153.975451810668</v>
+        <v>21.158067092449</v>
       </c>
       <c r="S4">
-        <v>0.04674519977028255</v>
+        <v>0.008209898315994663</v>
       </c>
       <c r="T4">
-        <v>0.04674519977028255</v>
+        <v>0.008209898315994663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>26.85873366975511</v>
+        <v>26.31324346219567</v>
       </c>
       <c r="R5">
-        <v>241.728603027796</v>
+        <v>236.819191159761</v>
       </c>
       <c r="S5">
-        <v>0.07338606060802459</v>
+        <v>0.09189220689217013</v>
       </c>
       <c r="T5">
-        <v>0.07338606060802459</v>
+        <v>0.09189220689217013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>49.76108465558767</v>
       </c>
       <c r="R6">
-        <v>447.849761900289</v>
+        <v>447.8497619002891</v>
       </c>
       <c r="S6">
-        <v>0.1359621052636654</v>
+        <v>0.1737777364056091</v>
       </c>
       <c r="T6">
-        <v>0.1359621052636654</v>
+        <v>0.1737777364056091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>24.24555995357412</v>
+        <v>13.13613580120189</v>
       </c>
       <c r="R7">
-        <v>218.210039582167</v>
+        <v>118.225222210817</v>
       </c>
       <c r="S7">
-        <v>0.06624609164772684</v>
+        <v>0.0458745616268076</v>
       </c>
       <c r="T7">
-        <v>0.06624609164772684</v>
+        <v>0.04587456162680759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H8">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>51.64647312839911</v>
+        <v>53.43825591343168</v>
       </c>
       <c r="R8">
-        <v>464.8182581555919</v>
+        <v>480.944303220885</v>
       </c>
       <c r="S8">
-        <v>0.1411135481588015</v>
+        <v>0.1866193073236607</v>
       </c>
       <c r="T8">
-        <v>0.1411135481588015</v>
+        <v>0.1866193073236607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H9">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>95.68524536950866</v>
+        <v>101.0573090381517</v>
       </c>
       <c r="R9">
-        <v>861.1672083255779</v>
+        <v>909.5157813433652</v>
       </c>
       <c r="S9">
-        <v>0.2614405914411262</v>
+        <v>0.35291655182842</v>
       </c>
       <c r="T9">
-        <v>0.2614405914411262</v>
+        <v>0.35291655182842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H10">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>46.62161947103711</v>
+        <v>26.67752410176056</v>
       </c>
       <c r="R10">
-        <v>419.594575239334</v>
+        <v>240.097716915845</v>
       </c>
       <c r="S10">
-        <v>0.1273841512490408</v>
+        <v>0.09316436294339211</v>
       </c>
       <c r="T10">
-        <v>0.1273841512490408</v>
+        <v>0.0931643629433921</v>
       </c>
     </row>
   </sheetData>
